--- a/public/data/soil/soil_table_burundi.xlsx
+++ b/public/data/soil/soil_table_burundi.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1016,25 +1016,25 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>5086.7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10373.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.924</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.737</v>
+        <v>31.173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3441.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11608.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.417</v>
+        <v>27.983</v>
       </c>
       <c r="K3" t="n">
-        <v>55.382</v>
+        <v>37.54</v>
       </c>
     </row>
     <row r="4">
@@ -1086,28 +1086,28 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>3542.9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4303.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1255.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.182</v>
+        <v>37.286</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.95</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.622</v>
+        <v>36.685</v>
       </c>
     </row>
     <row r="5">
@@ -1121,25 +1121,25 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>13164.9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>580.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>62.956</v>
+        <v>98.558</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.068</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>8991.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1410.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.091</v>
+        <v>51.622</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.83</v>
+        <v>40.711</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1206.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.841</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>81.612</v>
       </c>
     </row>
     <row r="8">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>81.612</v>
       </c>
     </row>
     <row r="11">
@@ -1337,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>299.7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>880.7</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>170.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>81.612</v>
       </c>
     </row>
     <row r="13">
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>102.7</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1507.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.795</v>
+        <v>85.473</v>
       </c>
       <c r="K13" t="n">
-        <v>1.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>778.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>464.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.604</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>81.612</v>
       </c>
     </row>
     <row r="15">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>337.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>248.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1541,16 +1541,16 @@
         <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>732.7</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>49.3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>178.9</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>175.9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>858.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1681,28 +1681,28 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>3886.9</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3883</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.947</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.323</v>
+        <v>31.106</v>
       </c>
       <c r="K21" t="n">
-        <v>0.236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1716,25 +1716,25 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>4546.9</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3426.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>148.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>36.95</v>
+        <v>36.023</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.079</v>
+        <v>76.526</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1751,28 +1751,28 @@
         <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>1366.4</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2208.2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>559.7</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>10.695</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.504</v>
+        <v>138.145</v>
       </c>
       <c r="K23" t="n">
-        <v>6.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1786,25 +1786,25 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>3931.6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1779.7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>722.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>51.692</v>
+        <v>81.897</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.061</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1539.8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>3950.6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1181.2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>42.978</v>
+        <v>62.061</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.113</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>8839.7</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>33.752</v>
+        <v>33.335</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1926,25 +1926,25 @@
         <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>6535.4</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2712.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.573</v>
+        <v>27.203</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.833</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1961,25 +1961,25 @@
         <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>10717.9</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>268.8</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>30.552</v>
+        <v>18.964</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.804</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1996,25 +1996,25 @@
         <v>59</v>
       </c>
       <c r="D30" t="n">
-        <v>5270.5</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1582.2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>38.806</v>
+        <v>102.124</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.379</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2597.2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6849.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.724</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>51.367</v>
+        <v>56.685</v>
       </c>
     </row>
     <row r="32">
@@ -2066,25 +2066,25 @@
         <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>5731.3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>899.7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>52.336</v>
+        <v>211.219</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.381</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2101,25 +2101,25 @@
         <v>63</v>
       </c>
       <c r="D33" t="n">
-        <v>10764.7</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5924.7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>29.828</v>
+        <v>27.111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.627</v>
+        <v>45.462</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2136,28 +2136,28 @@
         <v>62</v>
       </c>
       <c r="D34" t="n">
-        <v>11313</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>13720</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>51.473</v>
+        <v>27.995</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.398</v>
+        <v>91.648</v>
       </c>
       <c r="K34" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2171,25 +2171,25 @@
         <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>9996.7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4294</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>42.404</v>
+        <v>55.006</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>19.838</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>281.2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1934.9</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.563</v>
+        <v>31.876</v>
       </c>
       <c r="K36" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2241,25 +2241,25 @@
         <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>12517.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3496.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>42.177</v>
+        <v>41.99</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>8.182</v>
+        <v>19.207</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2276,25 +2276,25 @@
         <v>66</v>
       </c>
       <c r="D38" t="n">
-        <v>20031.6</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>459.9</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>61.68</v>
+        <v>64.395</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.357</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2311,28 +2311,28 @@
         <v>67</v>
       </c>
       <c r="D39" t="n">
-        <v>4607.1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>14008.1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>329.1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36.366</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>120.115</v>
+        <v>247.361</v>
       </c>
       <c r="K39" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2346,28 +2346,28 @@
         <v>68</v>
       </c>
       <c r="D40" t="n">
-        <v>1874.1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>17924.4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>413.4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.543</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.938</v>
+        <v>36.38</v>
       </c>
       <c r="K40" t="n">
-        <v>0.918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2381,25 +2381,25 @@
         <v>69</v>
       </c>
       <c r="D41" t="n">
-        <v>9013.8</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7227.4</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>35.396</v>
+        <v>47.064</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>25.298</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2416,28 +2416,28 @@
         <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>3283.4</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>8049.3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>150.5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>9.547</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>27.032</v>
+        <v>11.116</v>
       </c>
       <c r="K42" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2451,25 +2451,25 @@
         <v>71</v>
       </c>
       <c r="D43" t="n">
-        <v>4830.9</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27615.4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.263</v>
+        <v>17.07</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.931</v>
+        <v>33.094</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10987.8</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1854.8</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>41.306</v>
+        <v>23.123</v>
       </c>
       <c r="K44" t="n">
-        <v>9.748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23542.5</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>898.5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>63.124</v>
+        <v>59.092</v>
       </c>
       <c r="K45" t="n">
-        <v>2.505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2556,25 +2556,25 @@
         <v>74</v>
       </c>
       <c r="D46" t="n">
-        <v>9278.6</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>24941.4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>19.031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.852</v>
+        <v>63.105</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2591,28 +2591,28 @@
         <v>75</v>
       </c>
       <c r="D47" t="n">
-        <v>161.3</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>22650.1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2045.1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>53.859</v>
+        <v>48.099</v>
       </c>
       <c r="K47" t="n">
-        <v>7.834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2626,28 +2626,28 @@
         <v>76</v>
       </c>
       <c r="D48" t="n">
-        <v>77.9</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>6053.3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>7306.8</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>22.028</v>
+        <v>56.638</v>
       </c>
       <c r="K48" t="n">
-        <v>44.861</v>
+        <v>33.219</v>
       </c>
     </row>
     <row r="49">
@@ -2661,25 +2661,25 @@
         <v>77</v>
       </c>
       <c r="D49" t="n">
-        <v>15371</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1463.1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>64.575</v>
+        <v>102.909</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.741</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2696,25 +2696,25 @@
         <v>78</v>
       </c>
       <c r="D50" t="n">
-        <v>14625.3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>174.4</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>59.064</v>
+        <v>62.927</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2731,28 +2731,28 @@
         <v>79</v>
       </c>
       <c r="D51" t="n">
-        <v>10810.3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7496.7</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>360.5</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>47.471</v>
+        <v>45.393</v>
       </c>
       <c r="I51" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>46.582</v>
+        <v>55.417</v>
       </c>
       <c r="K51" t="n">
-        <v>2.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2766,28 +2766,28 @@
         <v>80</v>
       </c>
       <c r="D52" t="n">
-        <v>3633.3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>13602.3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>489.8</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>11.577</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>62.873</v>
+        <v>99.119</v>
       </c>
       <c r="K52" t="n">
-        <v>0.344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2801,28 +2801,28 @@
         <v>81</v>
       </c>
       <c r="D53" t="n">
-        <v>541.8</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>7701.8</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>6928.7</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.976</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>43.836</v>
+        <v>43.524</v>
       </c>
       <c r="K53" t="n">
-        <v>48.481</v>
+        <v>64.676</v>
       </c>
     </row>
     <row r="54">
@@ -2836,25 +2836,25 @@
         <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>10415.2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>8918.7</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>62.316</v>
+        <v>107.038</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>48.414</v>
+        <v>27.215</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>84</v>
       </c>
       <c r="D55" t="n">
-        <v>2523.4</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3966.4</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>14.316</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>15.01</v>
+        <v>23.863</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2906,25 +2906,25 @@
         <v>85</v>
       </c>
       <c r="D56" t="n">
-        <v>268.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>10927.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.522</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>45.165</v>
+        <v>46.46</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2941,25 +2941,25 @@
         <v>86</v>
       </c>
       <c r="D57" t="n">
-        <v>5107.7</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>6509.8</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>30.261</v>
+        <v>36.608</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>37.555</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2976,25 +2976,25 @@
         <v>87</v>
       </c>
       <c r="D58" t="n">
-        <v>162.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>10237</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1.506</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>56.21</v>
+        <v>31.019</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3011,25 +3011,25 @@
         <v>82</v>
       </c>
       <c r="D59" t="n">
-        <v>2391.4</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>19483.8</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>16.855</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>108.277</v>
+        <v>166.43</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3046,25 +3046,25 @@
         <v>88</v>
       </c>
       <c r="D60" t="n">
-        <v>942.4</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>15333.5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.501</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>43.145</v>
+        <v>31.538</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3081,25 +3081,25 @@
         <v>89</v>
       </c>
       <c r="D61" t="n">
-        <v>986.2</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>11968.6</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>53.509</v>
+        <v>44.776</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3116,25 +3116,25 @@
         <v>90</v>
       </c>
       <c r="D62" t="n">
-        <v>10614.1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>61.013</v>
+        <v>102.899</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>6.927</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>9394.1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>41.4</v>
+        <v>31.019</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         <v>92</v>
       </c>
       <c r="D64" t="n">
-        <v>3311.9</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>9665.6</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8.813</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>30.642</v>
+        <v>45.724</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3221,25 +3221,25 @@
         <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>15442.4</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1401.9</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>79.392</v>
+        <v>91.9</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>6.484</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3256,25 +3256,25 @@
         <v>95</v>
       </c>
       <c r="D66" t="n">
-        <v>10247.4</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>8812.2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>34.173</v>
+        <v>32.817</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>17.405</v>
+        <v>26.483</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3291,25 +3291,25 @@
         <v>96</v>
       </c>
       <c r="D67" t="n">
-        <v>10280.1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>44.614</v>
+        <v>52.886</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>23.437</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3326,25 +3326,25 @@
         <v>97</v>
       </c>
       <c r="D68" t="n">
-        <v>12517.4</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>3345.2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>61.093</v>
+        <v>99.502</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>15.012</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3361,28 +3361,28 @@
         <v>98</v>
       </c>
       <c r="D69" t="n">
-        <v>2280.5</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>10272.6</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>107.4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>6.717</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>42.17</v>
+        <v>28.811</v>
       </c>
       <c r="K69" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3396,25 +3396,25 @@
         <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>3944.3</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>9932.5</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>15.886</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>44.83</v>
+        <v>73.787</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>6923.9</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>5734.3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>32.332</v>
+        <v>29.543</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>27.702</v>
+        <v>37.277</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>102</v>
       </c>
       <c r="D72" t="n">
-        <v>7073.4</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>895.3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>47.378</v>
+        <v>115.153</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.611</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>6193.6</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>45.327</v>
+        <v>49.328</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>8117.7</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>70.453</v>
+        <v>42.888</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3571,19 +3571,19 @@
         <v>105</v>
       </c>
       <c r="D75" t="n">
-        <v>12757.9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>77.32</v>
+        <v>51.169</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>101</v>
       </c>
       <c r="D76" t="n">
-        <v>9411.6</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>89.307</v>
+        <v>122.325</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3641,25 +3641,25 @@
         <v>106</v>
       </c>
       <c r="D77" t="n">
-        <v>10028.8</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>374.5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>72.555</v>
+        <v>59.287</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.719</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>107</v>
       </c>
       <c r="D78" t="n">
-        <v>9275.7</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>109.808</v>
+        <v>49.328</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>108</v>
       </c>
       <c r="D79" t="n">
-        <v>8881</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>35.259</v>
+        <v>57.226</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3746,25 +3746,25 @@
         <v>109</v>
       </c>
       <c r="D80" t="n">
-        <v>11860.9</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>117.485</v>
+        <v>122.063</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.736</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -3781,28 +3781,28 @@
         <v>111</v>
       </c>
       <c r="D81" t="n">
-        <v>3306.2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>276.8</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>12373.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>656.5</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>23.645</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1.284</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>92.608</v>
+        <v>102.806</v>
       </c>
       <c r="K81" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3816,28 +3816,28 @@
         <v>112</v>
       </c>
       <c r="D82" t="n">
-        <v>336.5</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>26066.3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1476.5</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.686</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>183.807</v>
+        <v>207.055</v>
       </c>
       <c r="K82" t="n">
-        <v>6.838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3851,25 +3851,25 @@
         <v>113</v>
       </c>
       <c r="D83" t="n">
-        <v>1184.5</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>12202.7</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>73.653</v>
+        <v>74.352</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -3886,25 +3886,25 @@
         <v>114</v>
       </c>
       <c r="D84" t="n">
-        <v>1520.1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>11393.7</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>5.491</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>49.812</v>
+        <v>57.04</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -3921,28 +3921,28 @@
         <v>110</v>
       </c>
       <c r="D85" t="n">
-        <v>4454.9</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>9930.2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>30.426</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>58.117</v>
+        <v>80.423</v>
       </c>
       <c r="K85" t="n">
-        <v>1.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3956,25 +3956,25 @@
         <v>115</v>
       </c>
       <c r="D86" t="n">
-        <v>9512.9</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>8458.2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>64.767</v>
+        <v>72.215</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>42.09</v>
+        <v>57.311</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -3991,25 +3991,25 @@
         <v>116</v>
       </c>
       <c r="D87" t="n">
-        <v>8918.1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>4590.6</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>44.385</v>
+        <v>29.634</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>18.998</v>
+        <v>32.86</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4026,25 +4026,25 @@
         <v>118</v>
       </c>
       <c r="D88" t="n">
-        <v>507.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>31293.1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>114.994</v>
+        <v>123.584</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>19574.5</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>48.936</v>
+        <v>32.67</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4096,28 +4096,28 @@
         <v>45</v>
       </c>
       <c r="D90" t="n">
-        <v>192.2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1190.4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.524</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4131,25 +4131,25 @@
         <v>120</v>
       </c>
       <c r="D91" t="n">
-        <v>3627.7</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>16441.2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>8.598</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>36.676</v>
+        <v>55.769</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>117</v>
       </c>
       <c r="D92" t="n">
-        <v>1617.9</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>19416.3</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>194.8</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>4.652</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>73.286</v>
+        <v>58.007</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4201,28 +4201,28 @@
         <v>121</v>
       </c>
       <c r="D93" t="n">
-        <v>358.2</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>17958</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1591.2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.455</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>122.089</v>
+        <v>113.91</v>
       </c>
       <c r="K93" t="n">
-        <v>17.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4236,28 +4236,28 @@
         <v>122</v>
       </c>
       <c r="D94" t="n">
-        <v>4733.3</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>8441</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>13.742</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>22.073</v>
+        <v>38.603</v>
       </c>
       <c r="K94" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4271,25 +4271,25 @@
         <v>124</v>
       </c>
       <c r="D95" t="n">
-        <v>7260.3</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>4601.5</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>31.661</v>
+        <v>33.563</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>31.215</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         <v>125</v>
       </c>
       <c r="D96" t="n">
-        <v>6560.4</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1812.3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>40.718</v>
+        <v>48.625</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>11.977</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4341,25 +4341,25 @@
         <v>126</v>
       </c>
       <c r="D97" t="n">
-        <v>5138.8</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3810.9</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>29.227</v>
+        <v>35.277</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>24.037</v>
+        <v>35.369</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4376,25 +4376,25 @@
         <v>123</v>
       </c>
       <c r="D98" t="n">
-        <v>11942.7</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>2462.7</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>67.195</v>
+        <v>82.096</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>16.408</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4411,25 +4411,25 @@
         <v>127</v>
       </c>
       <c r="D99" t="n">
-        <v>4188.3</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2421.2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>28.561</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>10.861</v>
+        <v>29.219</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4446,25 +4446,25 @@
         <v>129</v>
       </c>
       <c r="D100" t="n">
-        <v>5760.2</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>12338.8</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>19.281</v>
+        <v>26.149</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>40.182</v>
+        <v>33.327</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4481,25 +4481,25 @@
         <v>130</v>
       </c>
       <c r="D101" t="n">
-        <v>3457.6</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>16248</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>18.526</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>86.258</v>
+        <v>81.547</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4516,25 +4516,25 @@
         <v>131</v>
       </c>
       <c r="D102" t="n">
-        <v>9047</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2777.7</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>32.749</v>
+        <v>23.074</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>6.764</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4551,25 +4551,25 @@
         <v>132</v>
       </c>
       <c r="D103" t="n">
-        <v>8666.8</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>4908.6</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>61.794</v>
+        <v>55.465</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>33.164</v>
+        <v>82.128</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4586,25 +4586,25 @@
         <v>133</v>
       </c>
       <c r="D104" t="n">
-        <v>2061</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>22980.1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>24.742</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>299.51</v>
+        <v>245.965</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4621,28 +4621,28 @@
         <v>128</v>
       </c>
       <c r="D105" t="n">
-        <v>1836.8</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>25323</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>55.7</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>10.493</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>139.182</v>
+        <v>153.2</v>
       </c>
       <c r="K105" t="n">
-        <v>0.299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4656,25 +4656,25 @@
         <v>134</v>
       </c>
       <c r="D106" t="n">
-        <v>2265.4</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>9754.1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.868</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>36.367</v>
+        <v>39.652</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4691,25 +4691,25 @@
         <v>136</v>
       </c>
       <c r="D107" t="n">
-        <v>6903.5</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>3380</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>26.095</v>
+        <v>27.541</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>13.152</v>
+        <v>42.671</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4726,25 +4726,25 @@
         <v>137</v>
       </c>
       <c r="D108" t="n">
-        <v>9594.6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>165.2</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>31.406</v>
+        <v>52.915</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.325</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4761,25 +4761,25 @@
         <v>138</v>
       </c>
       <c r="D109" t="n">
-        <v>6292.4</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>3094.4</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>37.143</v>
+        <v>36.079</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>15.917</v>
+        <v>42.671</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4796,25 +4796,25 @@
         <v>139</v>
       </c>
       <c r="D110" t="n">
-        <v>4936.7</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>8279.6</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>23.097</v>
+        <v>32.468</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>35.789</v>
+        <v>27.679</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -4831,25 +4831,25 @@
         <v>140</v>
       </c>
       <c r="D111" t="n">
-        <v>1948.6</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>9070.2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>8.284</v>
+        <v>36.079</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>52.063</v>
+        <v>77.81</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -4866,25 +4866,25 @@
         <v>141</v>
       </c>
       <c r="D112" t="n">
-        <v>12520.5</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>259.4</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>48.639</v>
+        <v>79.271</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.132</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -4901,25 +4901,25 @@
         <v>143</v>
       </c>
       <c r="D113" t="n">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>105.7</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>56.201</v>
+        <v>37.83</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -4936,25 +4936,25 @@
         <v>144</v>
       </c>
       <c r="D114" t="n">
-        <v>9542.4</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>484.9</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>55.486</v>
+        <v>36.382</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.376</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -4971,25 +4971,25 @@
         <v>145</v>
       </c>
       <c r="D115" t="n">
-        <v>13052.4</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>3647.6</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>73.677</v>
+        <v>83.029</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>18.602</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5006,25 +5006,25 @@
         <v>146</v>
       </c>
       <c r="D116" t="n">
-        <v>4423.7</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>8177.2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>24.92</v>
+        <v>37.152</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>38.049</v>
+        <v>32.855</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5041,25 +5041,25 @@
         <v>147</v>
       </c>
       <c r="D117" t="n">
-        <v>5625.8</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2558.7</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>43.607</v>
+        <v>34.704</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>15.309</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -5076,25 +5076,25 @@
         <v>142</v>
       </c>
       <c r="D118" t="n">
-        <v>13353.6</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>439.9</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>138.575</v>
+        <v>218.828</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.525</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5111,25 +5111,25 @@
         <v>148</v>
       </c>
       <c r="D119" t="n">
-        <v>1589.2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>5388.1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>22.038</v>
+        <v>59.173</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5146,25 +5146,25 @@
         <v>149</v>
       </c>
       <c r="D120" t="n">
-        <v>11970</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>111.2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>54.437</v>
+        <v>51.007</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.663</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5181,25 +5181,25 @@
         <v>150</v>
       </c>
       <c r="D121" t="n">
-        <v>15677.9</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>75.308</v>
+        <v>54.008</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5216,28 +5216,28 @@
         <v>152</v>
       </c>
       <c r="D122" t="n">
-        <v>424.8</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>14470.3</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>475.1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.018</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>51.365</v>
+        <v>18.717</v>
       </c>
       <c r="K122" t="n">
-        <v>4.248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5251,28 +5251,28 @@
         <v>153</v>
       </c>
       <c r="D123" t="n">
-        <v>832.4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>37232.9</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>111.1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>2.893</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>167.009</v>
+        <v>178.096</v>
       </c>
       <c r="K123" t="n">
-        <v>0.418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5286,25 +5286,25 @@
         <v>154</v>
       </c>
       <c r="D124" t="n">
-        <v>3629</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>14941.3</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>46.754</v>
+        <v>81.727</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>19678.3</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>53.12</v>
+        <v>51.333</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5356,16 +5356,16 @@
         <v>156</v>
       </c>
       <c r="D126" t="n">
-        <v>108.6</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>17127.8</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5374,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>48.828</v>
+        <v>72.963</v>
       </c>
       <c r="K126" t="n">
-        <v>0.529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5391,25 +5391,25 @@
         <v>151</v>
       </c>
       <c r="D127" t="n">
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>18015.4</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>58.933</v>
+        <v>32.147</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -5426,25 +5426,25 @@
         <v>158</v>
       </c>
       <c r="D128" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>23510.8</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>60.361</v>
+        <v>45.754</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5461,25 +5461,25 @@
         <v>159</v>
       </c>
       <c r="D129" t="n">
-        <v>6061.4</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>16352.6</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>11.613</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>29.482</v>
+        <v>31.458</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -5496,25 +5496,25 @@
         <v>160</v>
       </c>
       <c r="D130" t="n">
-        <v>4782.4</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>17766</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>10.22</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>24.851</v>
+        <v>57.662</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -5531,16 +5531,16 @@
         <v>161</v>
       </c>
       <c r="D131" t="n">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>32906</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1599.4</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>148.679</v>
+        <v>124.234</v>
       </c>
       <c r="K131" t="n">
-        <v>7.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>19601.5</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>80.749</v>
+        <v>97.195</v>
       </c>
       <c r="K132" t="n">
-        <v>1.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5607,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>16594</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>548.2</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>79.65</v>
+        <v>131.999</v>
       </c>
       <c r="K133" t="n">
-        <v>3.694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5636,25 +5636,25 @@
         <v>157</v>
       </c>
       <c r="D134" t="n">
-        <v>6228.6</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>12948.9</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>24.989</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>30.235</v>
+        <v>69.773</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_burundi.xlsx
+++ b/public/data/soil/soil_table_burundi.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1016,13 +1016,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11139</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6215.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>920.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6013.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2852.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1117.6</v>
       </c>
       <c r="H4" t="n">
         <v>37.286</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22568.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11661.5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1931.7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1706.2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>646.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>967.4</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7335.1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>842.1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3093.2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1305.1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2017.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4405.4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>842.1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2289.9</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2106</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5188.6</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>59</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2991.8</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>842.1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2774.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6271.4</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2101,13 +2101,13 @@
         <v>63</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>7400.5</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2352.9</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2136,13 +2136,13 @@
         <v>62</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4029.3</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>12586.3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>11142.5</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2256.3</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7831.6</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10655</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5982.3</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>66</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>12989.4</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>67</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1280.3</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10620.9</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>68</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3146.8</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>13008.6</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>69</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7146.9</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6178.8</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>7795.2</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>71</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>11717.6</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5011</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4013.8</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>11657.9</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>11962</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>13361.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4027.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2661,13 +2661,13 @@
         <v>77</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>14631.1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3440.1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>78</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>15388.7</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2848.9</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>79</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>9515.4</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4208.8</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>80</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>5899.2</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>16692.7</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>81</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2879.2</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>14281.6</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>13405.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>26233.6</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>6609.7</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>6962.1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>9012.1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>86</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4065.5</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3078.5</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>9914.3</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>16519</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>9916.6</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>13651.8</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>90</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>8673.7</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2392.9</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         <v>92</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>3146.8</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>12422.5</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>22369.6</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>95</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>13708</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>13579.7</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>96</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>20223.2</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>97</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>13408.5</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>6559.4</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>12159.9</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>7215</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>9571.5</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>7527.5</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>6278.9</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>14043.3</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>4096.2</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>5464.1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>105</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>30590.8</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>101</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>22861.1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>106</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>10847.4</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>107</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>14809.6</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>108</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>20105.5</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>109</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>14094</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>16772.8</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>37224.3</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>23042.4</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>19127.7</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>14417.9</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3956,13 +3956,13 @@
         <v>115</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>11946</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>14222.7</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>116</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>14511.6</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>14870.4</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>118</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2125.2</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>33041.8</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>13730.3</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>5279</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>800.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>14861.4</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>6149.1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>14477.8</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>800.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>10529.7</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         <v>124</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>19930.6</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>7560.9</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>125</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>10794.7</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4341,13 +4341,13 @@
         <v>126</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>10558.4</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>7560.9</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>123</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>22952.3</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4727.8</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4446,13 +4446,13 @@
         <v>129</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>3365.3</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>6899.5</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>18821.8</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>131</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>16462.8</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>132</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>6539.6</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>6625.6</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>29928.2</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>36331.6</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -4656,13 +4656,13 @@
         <v>134</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>8804.8</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4691,13 +4691,13 @@
         <v>136</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>6561.1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>7554.1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>137</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>13439.1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4761,13 +4761,13 @@
         <v>138</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3879</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>3809.6</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4796,13 +4796,13 @@
         <v>139</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>10794.7</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>8633.1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4831,13 +4831,13 @@
         <v>140</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>3879</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>8710.8</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>141</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>14392.2</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>143</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>11517.9</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>144</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>11222.6</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4971,13 +4971,13 @@
         <v>145</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>9788.7</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>5812</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -5006,13 +5006,13 @@
         <v>146</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>5838.5</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>15530.8</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -5041,13 +5041,13 @@
         <v>147</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>5949.5</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>6184.2</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>142</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>22442.2</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>11996.3</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>149</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>18014.7</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>150</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>11852.6</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>5547.1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5251,13 +5251,13 @@
         <v>153</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1743.5</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>24551.4</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>11467.7</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>8023.1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>4593.1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>4957.1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>7113.4</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>8161.3</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>8067.5</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>19688.5</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>5652.4</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>10615.6</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>6655.3</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
